--- a/data/trans_bre/MCS12_SP_R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>9,84%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,25; 27,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,93</t>
+          <t>-2,88; 4,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,26; 97,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 83,53</t>
+          <t>-34,34; 95,27</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,95%</t>
+          <t>54,86%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 13,5</t>
+          <t>3,97; 13,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,78; 105,93</t>
+          <t>20,76; 110,18</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>51,67%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 12,09</t>
+          <t>1,69; 12,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 119,08</t>
+          <t>10,71; 119,91</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,98</t>
+          <t>19,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>38,6%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,52; 25,13</t>
+          <t>12,73; 26,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 14,39</t>
+          <t>-2,75; 12,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,37; 102,57</t>
+          <t>49,96; 140,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 156,51</t>
+          <t>-17,15; 124,28</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,23</t>
+          <t>11,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>23,88%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 19,3</t>
+          <t>3,67; 19,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 43,34</t>
+          <t>7,17; 43,23</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>23,59%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 9,58</t>
+          <t>-1,68; 9,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 69,01</t>
+          <t>-8,85; 70,76</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,9</t>
+          <t>24,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>92,3%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,97; 37,69</t>
+          <t>7,39; 48,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,92; 157,88</t>
+          <t>25,6; 203,8</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>13,57</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>81,49%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,69; 13,95</t>
+          <t>6,65; 24,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,73; 77,36</t>
+          <t>28,06; 344,64</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>50,15%</t>
+          <t>68,36%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,0; 17,94</t>
+          <t>7,07; 27,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>33,72; 89,14</t>
+          <t>35,01; 161,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R3-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 15,13</t>
+          <t>1,37; 15,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 27,93</t>
+          <t>11,87; 28,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 20,94</t>
+          <t>3,91; 20,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,25</t>
+          <t>-3,09; 4,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 106,5</t>
+          <t>5,44; 106,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,26; 97,04</t>
+          <t>30,24; 99,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 78,38</t>
+          <t>11,7; 77,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 95,27</t>
+          <t>-35,18; 93,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 20,01</t>
+          <t>7,58; 20,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 16,53</t>
+          <t>5,52; 16,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 11,26</t>
+          <t>3,02; 10,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 13,88</t>
+          <t>3,16; 13,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,98; 85,41</t>
+          <t>25,6; 87,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,3; 138,81</t>
+          <t>30,89; 125,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,64; 162,99</t>
+          <t>28,08; 157,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,76; 110,18</t>
+          <t>16,24; 103,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 10,61</t>
+          <t>2,9; 10,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 14,54</t>
+          <t>1,91; 14,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 10,35</t>
+          <t>-0,15; 9,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 12,11</t>
+          <t>1,71; 11,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,18; 502,57</t>
+          <t>44,61; 487,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,63; 121,6</t>
+          <t>8,88; 122,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 131,16</t>
+          <t>-4,61; 120,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,71; 119,91</t>
+          <t>9,11; 105,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 11,39</t>
+          <t>1,69; 11,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,73; 26,69</t>
+          <t>14,04; 27,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 18,98</t>
+          <t>6,26; 19,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 12,12</t>
+          <t>-4,27; 11,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 150,7</t>
+          <t>10,93; 153,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,96; 140,02</t>
+          <t>52,34; 142,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,48; 116,03</t>
+          <t>27,01; 122,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 124,28</t>
+          <t>-24,62; 114,65</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 16,89</t>
+          <t>-1,42; 17,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,51; 26,45</t>
+          <t>10,55; 26,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 18,94</t>
+          <t>-0,46; 19,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 19,29</t>
+          <t>3,22; 19,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 66,51</t>
+          <t>-3,3; 66,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,98; 265,71</t>
+          <t>58,82; 262,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 54,03</t>
+          <t>-0,44; 54,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 43,23</t>
+          <t>5,75; 45,21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 14,84</t>
+          <t>4,97; 15,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 16,11</t>
+          <t>2,62; 16,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,51; 17,76</t>
+          <t>4,76; 17,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,69</t>
+          <t>-1,67; 8,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>64,13; 421,55</t>
+          <t>59,94; 452,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,93; 123,03</t>
+          <t>12,64; 123,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,58; 193,45</t>
+          <t>31,21; 184,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 70,76</t>
+          <t>-10,54; 66,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 10,03</t>
+          <t>1,58; 10,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 9,78</t>
+          <t>0,26; 9,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 14,28</t>
+          <t>4,1; 14,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,39; 48,67</t>
+          <t>7,63; 53,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,57; 81,12</t>
+          <t>10,4; 88,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 61,36</t>
+          <t>0,84; 56,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,5; 79,19</t>
+          <t>16,98; 79,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,6; 203,8</t>
+          <t>25,68; 206,19</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,75</t>
+          <t>0,85; 10,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,87; 10,53</t>
+          <t>0,83; 10,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,23</t>
+          <t>0,05; 7,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,65; 24,9</t>
+          <t>5,94; 25,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,81; 39,16</t>
+          <t>2,65; 39,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,25; 34,25</t>
+          <t>2,48; 35,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 42,46</t>
+          <t>0,27; 47,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,06; 344,64</t>
+          <t>24,99; 351,76</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,85</t>
+          <t>5,65; 9,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,63</t>
+          <t>8,28; 12,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,91</t>
+          <t>5,97; 9,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,07; 27,02</t>
+          <t>7,09; 23,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>29,39; 56,26</t>
+          <t>28,56; 56,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>35,6; 59,2</t>
+          <t>35,85; 60,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>29,06; 54,99</t>
+          <t>30,23; 56,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>35,01; 161,89</t>
+          <t>35,82; 140,26</t>
         </is>
       </c>
     </row>
